--- a/review-service/src/main/resources/review-service.xlsx
+++ b/review-service/src/main/resources/review-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="305">
   <si>
     <t xml:space="preserve">reviewerEmail</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Ultimate picture quality and sound.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sony KLV-32R2027</t>
+    <t xml:space="preserve">Sony KLV</t>
   </si>
   <si>
     <t xml:space="preserve">2019-06-01 10:57:10</t>
@@ -182,7 +182,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung LED samrt TV</t>
+    <t xml:space="preserve">Samsung LED TV</t>
   </si>
   <si>
     <t xml:space="preserve">2019-05-11 22:56:55</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">This is the 2nd 32 inch smart LG TV I am buying the first one stopped working after 3 months some issue with the electrical adaptor. After 3 months of no response from LG customer care I thought its easier to buy a new TV.</t>
   </si>
   <si>
-    <t xml:space="preserve">LG LED smart TV</t>
+    <t xml:space="preserve">LG LED  TV</t>
   </si>
   <si>
     <t xml:space="preserve">2019-03-29 2:30:49</t>
@@ -326,6 +326,9 @@
   <si>
     <t xml:space="preserve">It is probably the best budget smart TV around with a brand name. I have been using it for about a month now and my thoughts are below
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG LED TV</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-12 3:30:49</t>
@@ -442,7 +445,7 @@
     <t xml:space="preserve">Dear all,I am reviewing first time. Picture quality is awesome. It depends more on your skills. you have to learn its features then you get great pics. </t>
   </si>
   <si>
-    <t xml:space="preserve">Canon EOS 1300D</t>
+    <t xml:space="preserve">Canon EOS </t>
   </si>
   <si>
     <t xml:space="preserve">2019-04-23 3:34:39</t>
@@ -484,6 +487,9 @@
     <t xml:space="preserve">Superb picture clarity.Easy to use.I was confused with Nikon or Cannon.I hope Nikon is also equally better.But took a final call on Cannon, am happy with my decision.</t>
   </si>
   <si>
+    <t xml:space="preserve">Canon EOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019-04-21 12:50:23</t>
   </si>
   <si>
@@ -508,7 +514,7 @@
     <t xml:space="preserve">Best dslr for beginners. Loved it...Lightweight and compact with everything the family photographer needs, the Nikon D5600 maintains its position as a great general-purpose dSLR for its price class.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikon D5600 Digital</t>
+    <t xml:space="preserve">Nikon D5600 </t>
   </si>
   <si>
     <t xml:space="preserve">2019-06-28 12:40:45</t>
@@ -571,7 +577,7 @@
     <t xml:space="preserve">Power consumption 8 hour 7 Units.According to punjab electricity bill price.Unit price 7.33 approx Now.</t>
   </si>
   <si>
-    <t xml:space="preserve">Whirpool 0.8 ton 3 star Inverter split AC</t>
+    <t xml:space="preserve">Whirpool split AC</t>
   </si>
   <si>
     <t xml:space="preserve">2019-04-28 11:55:56</t>
@@ -640,7 +646,7 @@
     <t xml:space="preserve">The ac is working great. However the installation quality is bad. Mounting is not horizontal , holes made is very ugly. They charged 400 to fit outside stand and charged 600 for drainpipe extension and 100 for whiter cement. This is in addition to fitting charge by Amazon. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sanyo 1.5 3star Inverter split AC</t>
+    <t xml:space="preserve">Sanyo split AC</t>
   </si>
   <si>
     <t xml:space="preserve">2019-06-24 7:56:47</t>
@@ -700,7 +706,7 @@
     <t xml:space="preserve">I have been using this product for one month. Delivery was good by amazon via Bluedart. The product is working fine and I am satisfied with features.</t>
   </si>
   <si>
-    <t xml:space="preserve">Godrej 190 L3star Single door</t>
+    <t xml:space="preserve">Godrej L3star</t>
   </si>
   <si>
     <t xml:space="preserve">2019-04-23 3:46:56</t>
@@ -766,7 +772,7 @@
     <t xml:space="preserve">Best fridge on budget to notch perfomance. Don't buy any other from Samsung or whirlpool. Also it's smart fridge you can diagnose with nfc on mobile app. It's really good energy saver since installment my electricity bill increased only by 10rs. The best part to mention that it was delivered without single scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">LG 260 L 4Star Frost Free Double Door</t>
+    <t xml:space="preserve">LG 4Star</t>
   </si>
   <si>
     <t xml:space="preserve">2019-03-24 2:45:56</t>
@@ -788,6 +794,9 @@
   </si>
   <si>
     <t xml:space="preserve">I bought this product in the Great indian festival offers. Which turned out to be a super purchase. While purchasing I had a doubt thinking of product quality and service. Which is a five star from my side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG 4Star </t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-24 8:12:45</t>
@@ -1059,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,13 +1668,13 @@
         <v>98</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>55</v>
@@ -1676,22 +1685,22 @@
     </row>
     <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>55</v>
@@ -1702,22 +1711,22 @@
     </row>
     <row r="25" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>55</v>
@@ -1728,22 +1737,22 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>55</v>
@@ -1754,22 +1763,22 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>55</v>
@@ -1780,22 +1789,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>55</v>
@@ -1806,22 +1815,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>55</v>
@@ -1832,22 +1841,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>55</v>
@@ -1858,22 +1867,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>19999</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>55</v>
@@ -1884,25 +1893,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>24249</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>250</v>
@@ -1910,25 +1919,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>24249</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>40</v>
@@ -1936,25 +1945,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>24249</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>350</v>
@@ -1962,25 +1971,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>24249</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>900</v>
@@ -1988,25 +1997,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>24249</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>40</v>
@@ -2014,25 +2023,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>38999</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>30</v>
@@ -2040,25 +2049,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>38999</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>40</v>
@@ -2066,25 +2075,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>38999</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>90</v>
@@ -2092,25 +2101,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>38999</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>50</v>
@@ -2118,25 +2127,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>38999</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>40</v>
@@ -2144,25 +2153,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>23999</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>140</v>
@@ -2170,25 +2179,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>23999</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>120</v>
@@ -2196,25 +2205,25 @@
     </row>
     <row r="44" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>23999</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>40</v>
@@ -2222,25 +2231,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>23999</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>100</v>
@@ -2248,25 +2257,25 @@
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>23999</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>300</v>
@@ -2274,25 +2283,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>29990</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>320</v>
@@ -2300,25 +2309,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>29990</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>560</v>
@@ -2326,25 +2335,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>29990</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>600</v>
@@ -2352,25 +2361,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>29990</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>20</v>
@@ -2378,25 +2387,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>29990</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>30</v>
@@ -2404,25 +2413,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>10990</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>45</v>
@@ -2430,25 +2439,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>10990</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>5</v>
@@ -2456,25 +2465,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>10990</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>65</v>
@@ -2482,25 +2491,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>10990</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>75</v>
@@ -2508,25 +2517,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>10990</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>85</v>
@@ -2534,25 +2543,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>24490</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>90</v>
@@ -2560,25 +2569,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>24490</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>100</v>
@@ -2586,25 +2595,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>24490</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>25</v>
@@ -2612,25 +2621,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>24490</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>30</v>
@@ -2638,25 +2647,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>24490</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>50</v>
@@ -2664,25 +2673,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>7999</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>60</v>
@@ -2690,25 +2699,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>262</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>7999</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>70</v>
@@ -2716,25 +2725,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>7999</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>90</v>
@@ -2742,25 +2751,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>7999</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>20</v>
@@ -2768,25 +2777,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>7999</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>30</v>
@@ -2794,25 +2803,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>168500</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>500</v>
@@ -2820,25 +2829,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>168500</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>250</v>
@@ -2846,25 +2855,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>168500</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>150</v>
@@ -2872,25 +2881,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>168500</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>40</v>
@@ -2898,25 +2907,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>168500</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>100</v>
